--- a/除氧床溶解氧数据集.xlsx
+++ b/除氧床溶解氧数据集.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\离子交换树脂项目\大装置\大装置除氧实验结果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bchangedong\PycharmProjects\GraduationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F4FB63-2019-4161-AD16-8309E453F63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9B919C-58BA-4477-847A-C175B223B2E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5390" yWindow="1720" windowWidth="20410" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9910" yWindow="4360" windowWidth="25530" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G805"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A780" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A774" workbookViewId="0">
+      <selection activeCell="I806" sqref="I806"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -18967,7 +18967,7 @@
         <v>19.9583339691162</v>
       </c>
       <c r="G802" s="6">
-        <v>20.5</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.3">
@@ -18990,7 +18990,7 @@
         <v>26</v>
       </c>
       <c r="G803" s="6">
-        <v>24</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.3">
@@ -19013,7 +19013,7 @@
         <v>60</v>
       </c>
       <c r="G804" s="6">
-        <v>49.4</v>
+        <v>16.32</v>
       </c>
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.3">
@@ -19036,12 +19036,13 @@
         <v>65</v>
       </c>
       <c r="G805" s="6">
-        <v>60.4</v>
+        <v>18.321000000000002</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="G1:G805" xr:uid="{86F0B49B-952C-439B-AE0C-A0FEB7A1DFC0}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>